--- a/Логистика/Таблицы к 12.xlsx
+++ b/Логистика/Таблицы к 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dima\Documents\_Учёба\Логистика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC4B30-C99B-4053-A738-1CFCD870A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F0FE3-5731-478E-B31A-DFB9B723BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3510" windowWidth="12960" windowHeight="9330" xr2:uid="{13961434-3E5F-4C9B-B5DD-69CE2C45EABD}"/>
+    <workbookView xWindow="12915" yWindow="0" windowWidth="15885" windowHeight="15600" xr2:uid="{13961434-3E5F-4C9B-B5DD-69CE2C45EABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>А</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>🦈                     🎣🤓</t>
   </si>
 </sst>
 </file>
@@ -94,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +140,12 @@
       <name val="Inter"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +243,35 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -258,22 +290,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -588,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B35693F-9EBF-4AD1-9311-D82DCBC4D9E4}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,371 +624,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="F1"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2"/>
+      <c r="K2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3"/>
+      <c r="K3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>625</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F2"/>
-      <c r="K2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="F3"/>
-      <c r="K3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5">
-        <f>625*0.8</f>
-        <v>500</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4"/>
+      <c r="K4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
+        <v>800</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="5">
-        <f>125*0.8</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F4"/>
-      <c r="K4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <f>800*0.8</f>
-        <v>640</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5"/>
+      <c r="K5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16">
+        <v>575</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="5">
-        <f>500*0.8</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="F5"/>
-      <c r="K5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5">
-        <f>575*0.8</f>
-        <v>460</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="N6" s="16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="5">
-        <f>300*0.8</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6"/>
-      <c r="K6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="5">
-        <f>450*0.8</f>
-        <v>360</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5">
-        <f>675*0.8</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f>SUM(A2:A6)</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="B7" s="4">
-        <f>SUM(B2:B6)</f>
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <f>SUM(C2:C6)</f>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM(D2:D6)</f>
-        <v>17.3</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM(E2:E6)</f>
-        <v>22.9</v>
-      </c>
-      <c r="F7"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="5">
-        <f>400*0.8</f>
-        <v>320</v>
+      <c r="N7" s="16">
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F8"/>
-      <c r="K8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="10">
-        <f>SUM(L3:L7)</f>
-        <v>1960</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="10">
-        <f>SUM(N3:N7)</f>
-        <v>1600</v>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="16">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
+      <c r="K9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="21">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1700</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <f>5.3+2</f>
+        <v>7.3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="D14" s="15">
+        <f>5.3+2</f>
+        <v>7.3</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <f>2.6+5.8</f>
-        <v>8.4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="E10" s="2">
-        <f>C10+2</f>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B15" s="24">
         <v>7.3</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <f>2.6+5.8</f>
-        <v>8.4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C15" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D15" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f>A12+2</f>
-        <v>7.3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f>SUM(A10:A14)</f>
-        <v>23.6</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B10:B14)</f>
-        <v>26.2</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="0">SUM(C10:C14)</f>
-        <v>15.100000000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>21.1</v>
-      </c>
-    </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <f>SUM(A10:A15)</f>
+        <v>35.5</v>
+      </c>
+      <c r="B16" s="12">
+        <f>SUM(B10:B15)</f>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="C16" s="12">
+        <f>SUM(C10:C15)</f>
+        <v>20.599999999999998</v>
+      </c>
+      <c r="D16" s="12">
+        <f>SUM(D10:D15)</f>
+        <v>27.400000000000002</v>
+      </c>
+      <c r="E16" s="12">
+        <f>SUM(E10:E15)</f>
+        <v>25.6</v>
+      </c>
+      <c r="F16" s="12">
+        <f>SUM(F10:F15)</f>
+        <v>29.500000000000004</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17"/>
       <c r="I17"/>
     </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <f>5.8+4.6-9.3</f>
+        <v>1.0999999999999979</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f>2.6+2.8-5.3</f>
+        <v>0.10000000000000053</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
